--- a/list.xlsx
+++ b/list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\OMG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87C6C71-C67E-41F9-A889-A01C9310DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D7B36A-B042-4C1F-8732-84DB24FA68CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>FRONTEND</t>
   </si>
@@ -34,6 +35,132 @@
   </si>
   <si>
     <t>DATABASE</t>
+  </si>
+  <si>
+    <t>Product_option</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>addprice</t>
+  </si>
+  <si>
+    <t>totalprice</t>
+  </si>
+  <si>
+    <t>prio</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>average_rating</t>
+  </si>
+  <si>
+    <t>product_review</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>product_spec</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>product_spec_category</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>gpu</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>mobo</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>psu</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>product_option_id</t>
+  </si>
+  <si>
+    <t>product_spec_category_name</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>time_add</t>
+  </si>
+  <si>
+    <t>status_text</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>encrypted</t>
   </si>
 </sst>
 </file>
@@ -353,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -377,4 +504,286 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91A7A16-3C9D-4840-941D-5D831D672777}">
+  <dimension ref="A1:L64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>